--- a/biology/Botanique/Silene_baccifera/Silene_baccifera.xlsx
+++ b/biology/Botanique/Silene_baccifera/Silene_baccifera.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Coulichon, la Cucubale à baies ou Cucubale couchée (Silene baccifera) est une espèce de plante grimpante hémicryptophyte vivace de la famille des Caryophyllaceae. 
 </t>
@@ -511,10 +523,12 @@
           <t>Historique et dénomination</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'espèce a été décrite par le naturaliste suédois Carl von Linné, en 1753 sous le nom Cucubalus baccifer (basionyme)[1].
-Actuellement cette espèce fait partie du genre Silene : son nom binominal : Silene baccifera (L.) Roth, 1788[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce a été décrite par le naturaliste suédois Carl von Linné, en 1753 sous le nom Cucubalus baccifer (basionyme).
+Actuellement cette espèce fait partie du genre Silene : son nom binominal : Silene baccifera (L.) Roth, 1788.
 </t>
         </is>
       </c>
@@ -543,7 +557,9 @@
           <t>Synonymie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Cucubalus baccifer L.
 Lychnis baccifera (L.) Scop.
@@ -576,9 +592,11 @@
           <t>Statuts de protection, menaces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'espèce n'est pas encore évaluée à l'échelle mondiale et européenne par l'UICN. En Europe et en France elle est classée comme non préoccupante [3].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce n'est pas encore évaluée à l'échelle mondiale et européenne par l'UICN. En Europe et en France elle est classée comme non préoccupante .
 Toutefois localement l'espèce est considérée en danger (EN) en Champagne-Ardenne, comme vulnérable (VU) en Basse-Normandie ; quasi menacée (NT), proche du seuil des espèces menacées ou qui pourraient l'être si des mesures de conservation spécifiques n'étaient pas prises, en Bretagne.  Elle a disparu (RE) en Picardie.
 </t>
         </is>
@@ -608,9 +626,11 @@
           <t>Usages alimentaires</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les jeunes pousses sont comestibles[4].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les jeunes pousses sont comestibles.
 </t>
         </is>
       </c>
